--- a/Results Genetaor/Batch 2017-19/Sem 1/All Subject Marks.xlsx
+++ b/Results Genetaor/Batch 2017-19/Sem 1/All Subject Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\ACMaS\Results Genetaor\Batch 2017-19\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8755440-7E47-46D4-B929-7AD714383E8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515AAB4C-8AFE-4EDE-84B2-20657808E8D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="11400" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
             <v>1719001</v>
           </cell>
           <cell r="E2" t="str">
-            <v>Vasant Govind Patil</v>
+            <v>A</v>
           </cell>
         </row>
         <row r="3">
@@ -479,7 +479,7 @@
             <v>1719002</v>
           </cell>
           <cell r="E3" t="str">
-            <v>Debjyoti Roy Patil</v>
+            <v>B</v>
           </cell>
         </row>
         <row r="4">
@@ -487,7 +487,7 @@
             <v>1719003</v>
           </cell>
           <cell r="E4" t="str">
-            <v>Kaustav Saha Patil</v>
+            <v>C</v>
           </cell>
         </row>
         <row r="5">
@@ -495,7 +495,7 @@
             <v>1719004</v>
           </cell>
           <cell r="E5" t="str">
-            <v>Debobrata Podder Patil</v>
+            <v>D</v>
           </cell>
         </row>
         <row r="6">
@@ -503,7 +503,7 @@
             <v>1719005</v>
           </cell>
           <cell r="E6" t="str">
-            <v>Anurag Mark Topno</v>
+            <v>E</v>
           </cell>
         </row>
         <row r="7">
@@ -511,7 +511,7 @@
             <v>1719006</v>
           </cell>
           <cell r="E7" t="str">
-            <v>Tarun Minz Topno</v>
+            <v>F</v>
           </cell>
         </row>
         <row r="8">
@@ -519,7 +519,7 @@
             <v>1719007</v>
           </cell>
           <cell r="E8" t="str">
-            <v>Praveen Rao Rokkam</v>
+            <v>G</v>
           </cell>
         </row>
         <row r="9">
@@ -527,7 +527,7 @@
             <v>1719008</v>
           </cell>
           <cell r="E9" t="str">
-            <v>Arindam Sharma Rokkam</v>
+            <v>H</v>
           </cell>
         </row>
         <row r="10">
@@ -535,7 +535,7 @@
             <v>1719009</v>
           </cell>
           <cell r="E10" t="str">
-            <v>Kaustubh Tripathi Rokkam</v>
+            <v>I</v>
           </cell>
         </row>
         <row r="11">
@@ -543,7 +543,7 @@
             <v>1719010</v>
           </cell>
           <cell r="E11" t="str">
-            <v>Nakul Gupta Rokkam</v>
+            <v>J</v>
           </cell>
         </row>
         <row r="12">
@@ -551,7 +551,7 @@
             <v>1719011</v>
           </cell>
           <cell r="E12" t="str">
-            <v>Gaurav Kumar Rokkam</v>
+            <v>K</v>
           </cell>
         </row>
         <row r="13">
@@ -559,7 +559,7 @@
             <v>1719012</v>
           </cell>
           <cell r="E13" t="str">
-            <v>Abhiram Kasina Rokkam</v>
+            <v>L</v>
           </cell>
         </row>
         <row r="14">
@@ -567,7 +567,7 @@
             <v>1719013</v>
           </cell>
           <cell r="E14" t="str">
-            <v>Biplab Sinha Rokkam</v>
+            <v>M</v>
           </cell>
         </row>
         <row r="15">
@@ -575,7 +575,7 @@
             <v>1719014</v>
           </cell>
           <cell r="E15" t="str">
-            <v>M Jagan Mohan</v>
+            <v>N</v>
           </cell>
         </row>
         <row r="16">
@@ -583,7 +583,7 @@
             <v>1719015</v>
           </cell>
           <cell r="E16" t="str">
-            <v>Asit Parija Mohan</v>
+            <v>O</v>
           </cell>
         </row>
         <row r="17">
@@ -591,7 +591,7 @@
             <v>1719016</v>
           </cell>
           <cell r="E17" t="str">
-            <v>Shenoy Naresh Keshav</v>
+            <v>P</v>
           </cell>
         </row>
         <row r="18">
@@ -599,7 +599,7 @@
             <v>1719017</v>
           </cell>
           <cell r="E18" t="str">
-            <v>Amit Kumar Suthar</v>
+            <v>Q</v>
           </cell>
         </row>
         <row r="19">
@@ -607,7 +607,7 @@
             <v>1719018</v>
           </cell>
           <cell r="E19" t="str">
-            <v>Amar Singh Patel</v>
+            <v>R</v>
           </cell>
         </row>
         <row r="20">
@@ -615,7 +615,7 @@
             <v>1719019</v>
           </cell>
           <cell r="E20" t="str">
-            <v>Rahul Jaimini Patel</v>
+            <v>S</v>
           </cell>
         </row>
         <row r="21">
@@ -623,7 +623,7 @@
             <v>1719020</v>
           </cell>
           <cell r="E21" t="str">
-            <v>Rohit Rajgarhia Patel</v>
+            <v>T</v>
           </cell>
         </row>
         <row r="22">
@@ -631,7 +631,7 @@
             <v>1719021</v>
           </cell>
           <cell r="E22" t="str">
-            <v>Akshit Sharma Patel</v>
+            <v>U</v>
           </cell>
         </row>
         <row r="23">
@@ -639,7 +639,7 @@
             <v>1719022</v>
           </cell>
           <cell r="E23" t="str">
-            <v>Divya Kumar Kala</v>
+            <v>V</v>
           </cell>
         </row>
         <row r="24">
@@ -647,7 +647,7 @@
             <v>1719023</v>
           </cell>
           <cell r="E24" t="str">
-            <v>Sri Harshad Kala</v>
+            <v>W</v>
           </cell>
         </row>
         <row r="25">
@@ -655,7 +655,7 @@
             <v>1719024</v>
           </cell>
           <cell r="E25" t="str">
-            <v>Micky Mrinal Minz</v>
+            <v>X</v>
           </cell>
         </row>
         <row r="26">
@@ -663,7 +663,7 @@
             <v>1719025</v>
           </cell>
           <cell r="E26" t="str">
-            <v>Nishant Mundu Minz</v>
+            <v>Y</v>
           </cell>
         </row>
         <row r="27">
@@ -671,855 +671,855 @@
             <v>1719026</v>
           </cell>
           <cell r="E27" t="str">
-            <v>Vinu Rajashekhar Minz</v>
+            <v>Z</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
             <v>1719027</v>
           </cell>
-          <cell r="E28" t="str">
-            <v>Mainack Mondal Minz</v>
+          <cell r="E28">
+            <v>1</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
             <v>1719028</v>
           </cell>
-          <cell r="E29" t="str">
-            <v>Debabrata Dey Minz</v>
+          <cell r="E29">
+            <v>2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
             <v>1719029</v>
           </cell>
-          <cell r="E30" t="str">
-            <v>Vivekananda Najumudheen Bhat</v>
+          <cell r="E30">
+            <v>3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
             <v>1719030</v>
           </cell>
-          <cell r="E31" t="str">
-            <v>Praveen Ankit Sonare</v>
+          <cell r="E31">
+            <v>4</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
             <v>1719031</v>
           </cell>
-          <cell r="E32" t="str">
-            <v>Ravi Rattan Sonare</v>
+          <cell r="E32">
+            <v>5</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
             <v>1719032</v>
           </cell>
-          <cell r="E33" t="str">
-            <v>Anindya Bhowmik Sonare</v>
+          <cell r="E33">
+            <v>6</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
             <v>1719033</v>
           </cell>
-          <cell r="E34" t="str">
-            <v>Bishal Lama Sonare</v>
+          <cell r="E34">
+            <v>7</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
             <v>1719034</v>
           </cell>
-          <cell r="E35" t="str">
-            <v>Arun Kumar Saragadam</v>
+          <cell r="E35">
+            <v>8</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
             <v>1719035</v>
           </cell>
-          <cell r="E36" t="str">
-            <v>Arit Kumar Mondal</v>
+          <cell r="E36">
+            <v>9</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
             <v>1719036</v>
           </cell>
-          <cell r="E37" t="str">
-            <v>Akash Rao Mondal</v>
+          <cell r="E37">
+            <v>10</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
             <v>1719037</v>
           </cell>
-          <cell r="E38" t="str">
-            <v>Marut Agarwal Mondal</v>
+          <cell r="E38">
+            <v>11</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
             <v>1719038</v>
           </cell>
-          <cell r="E39" t="str">
-            <v>Abhishek Pratap Singh</v>
+          <cell r="E39">
+            <v>12</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
             <v>1719039</v>
           </cell>
-          <cell r="E40" t="str">
-            <v>Sushant Kumar Singh</v>
+          <cell r="E40">
+            <v>13</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
             <v>1719040</v>
           </cell>
-          <cell r="E41" t="str">
-            <v>Arpit Mishra Singh</v>
+          <cell r="E41">
+            <v>14</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
             <v>1719041</v>
           </cell>
-          <cell r="E42" t="str">
-            <v>Abhinav Gupta Singh</v>
+          <cell r="E42">
+            <v>15</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
             <v>1719042</v>
           </cell>
-          <cell r="E43" t="str">
-            <v>Togarrati Venkata Nagesh</v>
+          <cell r="E43">
+            <v>16</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
             <v>1719043</v>
           </cell>
-          <cell r="E44" t="str">
-            <v>Pam Revanth Nagesh</v>
+          <cell r="E44">
+            <v>17</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
             <v>1719044</v>
           </cell>
-          <cell r="E45" t="str">
-            <v>Gourav Khaneja Nagesh</v>
+          <cell r="E45">
+            <v>18</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
             <v>1719045</v>
           </cell>
-          <cell r="E46" t="str">
-            <v>Mayank Jaiswal Nagesh</v>
+          <cell r="E46">
+            <v>19</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
             <v>1719046</v>
           </cell>
-          <cell r="E47" t="str">
-            <v>Amit Shanker Nagesh</v>
+          <cell r="E47">
+            <v>20</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
             <v>1719047</v>
           </cell>
-          <cell r="E48" t="str">
-            <v>Abhinav Anand Nagesh</v>
+          <cell r="E48">
+            <v>21</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
             <v>1719048</v>
           </cell>
-          <cell r="E49" t="str">
-            <v>Varun K Choudhary</v>
+          <cell r="E49">
+            <v>22</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
             <v>1719049</v>
           </cell>
-          <cell r="E50" t="str">
-            <v>Diptesh Chatterjee Choudhary</v>
+          <cell r="E50">
+            <v>23</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
             <v>1719050</v>
           </cell>
-          <cell r="E51" t="str">
-            <v>Anuj Kumar Singh</v>
+          <cell r="E51">
+            <v>24</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
             <v>1719051</v>
           </cell>
-          <cell r="E52" t="str">
-            <v>Dilpreet Singh Singh</v>
+          <cell r="E52">
+            <v>25</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
             <v>1719052</v>
           </cell>
-          <cell r="E53" t="str">
-            <v>Amit Sharma Singh</v>
+          <cell r="E53">
+            <v>26</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
             <v>1719053</v>
           </cell>
-          <cell r="E54" t="str">
-            <v>Kammara Yashwanth Kumar</v>
+          <cell r="E54">
+            <v>27</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
             <v>1719054</v>
           </cell>
-          <cell r="E55" t="str">
-            <v>Mani Kumar Nallani</v>
+          <cell r="E55">
+            <v>28</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
             <v>1719055</v>
           </cell>
-          <cell r="E56" t="str">
-            <v>Rahul Saxena Nallani</v>
+          <cell r="E56">
+            <v>29</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
             <v>1719056</v>
           </cell>
-          <cell r="E57" t="str">
-            <v>Sahil Goyal Nallani</v>
+          <cell r="E57">
+            <v>30</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
             <v>1719057</v>
           </cell>
-          <cell r="E58" t="str">
-            <v>Dodda Raviteja Nallani</v>
+          <cell r="E58">
+            <v>31</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
             <v>1719058</v>
           </cell>
-          <cell r="E59" t="str">
-            <v>Anirudha Patro Nallani</v>
+          <cell r="E59">
+            <v>32</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
             <v>1719059</v>
           </cell>
-          <cell r="E60" t="str">
-            <v>Mullapudi Pavan Nithin</v>
+          <cell r="E60">
+            <v>33</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
             <v>1719060</v>
           </cell>
-          <cell r="E61" t="str">
-            <v>Sameer Hembrom Nithin</v>
+          <cell r="E61">
+            <v>34</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
             <v>1719061</v>
           </cell>
-          <cell r="E62" t="str">
-            <v>Ayan Mazumdar Nithin</v>
+          <cell r="E62">
+            <v>35</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
             <v>1719062</v>
           </cell>
-          <cell r="E63" t="str">
-            <v>Kiran Kumar Bollam</v>
+          <cell r="E63">
+            <v>36</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
             <v>1719063</v>
           </cell>
-          <cell r="E64" t="str">
-            <v>Biswajyoti Das Bollam</v>
+          <cell r="E64">
+            <v>37</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
             <v>1719064</v>
           </cell>
-          <cell r="E65" t="str">
-            <v>Arka Aloke Bhattacharya</v>
+          <cell r="E65">
+            <v>38</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
             <v>1719065</v>
           </cell>
-          <cell r="E66" t="str">
-            <v>Abhijeet Kumar Bhattacharya</v>
+          <cell r="E66">
+            <v>39</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
             <v>1719066</v>
           </cell>
-          <cell r="E67" t="str">
-            <v>Alok Kumar Yadav</v>
+          <cell r="E67">
+            <v>40</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
             <v>1719067</v>
           </cell>
-          <cell r="E68" t="str">
-            <v>Anshul Rai Yadav</v>
+          <cell r="E68">
+            <v>41</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
             <v>1719068</v>
           </cell>
-          <cell r="E69" t="str">
-            <v>Mohit Singh Yadav</v>
+          <cell r="E69">
+            <v>42</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
             <v>1719069</v>
           </cell>
-          <cell r="E70" t="str">
-            <v>Biswajeet Mistry Yadav</v>
+          <cell r="E70">
+            <v>43</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
             <v>1719070</v>
           </cell>
-          <cell r="E71" t="str">
-            <v>Badal Murmu Yadav</v>
+          <cell r="E71">
+            <v>44</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
             <v>1719071</v>
           </cell>
-          <cell r="E72" t="str">
-            <v>Chinthala Sathish Chandra</v>
+          <cell r="E72">
+            <v>45</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
             <v>1719072</v>
           </cell>
-          <cell r="E73" t="str">
-            <v>Vadde Sanjeev Chandra</v>
+          <cell r="E73">
+            <v>46</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
             <v>1719073</v>
           </cell>
-          <cell r="E74" t="str">
-            <v>B Rajender Naik</v>
+          <cell r="E74">
+            <v>47</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
             <v>1719074</v>
           </cell>
-          <cell r="E75" t="str">
-            <v>Gaurav Mehta Naik</v>
+          <cell r="E75">
+            <v>48</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
             <v>1719075</v>
           </cell>
-          <cell r="E76" t="str">
-            <v>Naveen Kumar Molleti</v>
+          <cell r="E76">
+            <v>49</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
             <v>1719076</v>
           </cell>
-          <cell r="E77" t="str">
-            <v>Rahul Kumar Srivastava</v>
+          <cell r="E77">
+            <v>50</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
             <v>1719077</v>
           </cell>
-          <cell r="E78" t="str">
-            <v>Saurabh Kumar Goyal</v>
+          <cell r="E78">
+            <v>51</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
             <v>1719078</v>
           </cell>
-          <cell r="E79" t="str">
-            <v>Narendra Kumar Tangella</v>
+          <cell r="E79">
+            <v>52</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
             <v>1719079</v>
           </cell>
-          <cell r="E80" t="str">
-            <v>Nandam Karthik Kumar</v>
+          <cell r="E80">
+            <v>53</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
             <v>1719080</v>
           </cell>
-          <cell r="E81" t="str">
-            <v>Atul Kumar Gupta</v>
+          <cell r="E81">
+            <v>54</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
             <v>1719081</v>
           </cell>
-          <cell r="E82" t="str">
-            <v>Harsh Vardhan Agarwal</v>
+          <cell r="E82">
+            <v>55</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
             <v>1719082</v>
           </cell>
-          <cell r="E83" t="str">
-            <v>Rayman Preet Agarwal</v>
+          <cell r="E83">
+            <v>56</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
             <v>1719083</v>
           </cell>
-          <cell r="E84" t="str">
-            <v>Aniket Nayak Agarwal</v>
+          <cell r="E84">
+            <v>57</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
             <v>1719084</v>
           </cell>
-          <cell r="E85" t="str">
-            <v>Siddharth Raghuvansi Agarwal</v>
+          <cell r="E85">
+            <v>58</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
             <v>1719085</v>
           </cell>
-          <cell r="E86" t="str">
-            <v>Sayantan Ghosh Agarwal</v>
+          <cell r="E86">
+            <v>59</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
             <v>1719086</v>
           </cell>
-          <cell r="E87" t="str">
-            <v>Aurosish Mishra Agarwal</v>
+          <cell r="E87">
+            <v>60</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
             <v>1719087</v>
           </cell>
-          <cell r="E88" t="str">
-            <v>Ashish Jhunjhunwala Agarwal</v>
+          <cell r="E88">
+            <v>61</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
             <v>1719088</v>
           </cell>
-          <cell r="E89" t="str">
-            <v>Sujan Kundu Agarwal</v>
+          <cell r="E89">
+            <v>62</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
             <v>1719089</v>
           </cell>
-          <cell r="E90" t="str">
-            <v>Bivas Mitra Agarwal</v>
+          <cell r="E90">
+            <v>63</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
             <v>1719090</v>
           </cell>
-          <cell r="E91" t="str">
-            <v>Sujan Kumar Saha</v>
+          <cell r="E91">
+            <v>64</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
             <v>1719091</v>
           </cell>
-          <cell r="E92" t="str">
-            <v>Plaban Kumar Bhowmick</v>
+          <cell r="E92">
+            <v>65</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
             <v>1719092</v>
           </cell>
-          <cell r="E93" t="str">
-            <v>Arnab Kumar Sarkar</v>
+          <cell r="E93">
+            <v>66</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
             <v>1719093</v>
           </cell>
-          <cell r="E94" t="str">
-            <v>Alimpan Barua Boro</v>
+          <cell r="E94">
+            <v>67</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
             <v>1719094</v>
           </cell>
-          <cell r="E95" t="str">
-            <v>Keshav Prawasi Singh</v>
+          <cell r="E95">
+            <v>68</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
             <v>1719095</v>
           </cell>
-          <cell r="E96" t="str">
-            <v>Neetesh Gupta Singh</v>
+          <cell r="E96">
+            <v>69</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
             <v>1719096</v>
           </cell>
-          <cell r="E97" t="str">
-            <v>Naveen Kumar Singh</v>
+          <cell r="E97">
+            <v>70</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
             <v>1719097</v>
           </cell>
-          <cell r="E98" t="str">
-            <v>Sumit Sinha Singh</v>
+          <cell r="E98">
+            <v>71</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
             <v>1719098</v>
           </cell>
-          <cell r="E99" t="str">
-            <v>Korlam Gautam Singh</v>
+          <cell r="E99">
+            <v>72</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
             <v>1719099</v>
           </cell>
-          <cell r="E100" t="str">
-            <v>Dhoble Sumit Singh</v>
+          <cell r="E100">
+            <v>73</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
             <v>1719100</v>
           </cell>
-          <cell r="E101" t="str">
-            <v>Nandish Tella Naidu</v>
+          <cell r="E101">
+            <v>74</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
             <v>1719101</v>
           </cell>
-          <cell r="E102" t="str">
-            <v>Gautam Kumar Reddy</v>
+          <cell r="E102">
+            <v>75</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
             <v>1719102</v>
           </cell>
-          <cell r="E103" t="str">
-            <v>Ramdutt Kishav Sharma</v>
+          <cell r="E103">
+            <v>76</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
             <v>1719103</v>
           </cell>
-          <cell r="E104" t="str">
-            <v>Pratik Kishav Agarwal</v>
+          <cell r="E104">
+            <v>77</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
             <v>1719104</v>
           </cell>
-          <cell r="E105" t="str">
-            <v>Rishav Kishav Agarwal</v>
+          <cell r="E105">
+            <v>78</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
             <v>1719105</v>
           </cell>
-          <cell r="E106" t="str">
-            <v>Rakesh Prudhvi Kumar</v>
+          <cell r="E106">
+            <v>79</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
             <v>1719106</v>
           </cell>
-          <cell r="E107" t="str">
-            <v>Sayak Mitra Kumar</v>
+          <cell r="E107">
+            <v>80</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
             <v>1719107</v>
           </cell>
-          <cell r="E108" t="str">
-            <v>Achin Gautam Agarwal</v>
+          <cell r="E108">
+            <v>81</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
             <v>1719108</v>
           </cell>
-          <cell r="E109" t="str">
-            <v>Avishek Gautam Banerjee</v>
+          <cell r="E109">
+            <v>82</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
             <v>1719109</v>
           </cell>
-          <cell r="E110" t="str">
-            <v>Vighnesh Gautam Avadhani</v>
+          <cell r="E110">
+            <v>83</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
             <v>1719110</v>
           </cell>
-          <cell r="E111" t="str">
-            <v>Abhinav Gautam Chandel</v>
+          <cell r="E111">
+            <v>84</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
             <v>1719111</v>
           </cell>
-          <cell r="E112" t="str">
-            <v>Arvind Gautam Das</v>
+          <cell r="E112">
+            <v>85</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
             <v>1719112</v>
           </cell>
-          <cell r="E113" t="str">
-            <v>Sunita Suman Das</v>
+          <cell r="E113">
+            <v>86</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
             <v>1719113</v>
           </cell>
-          <cell r="E114" t="str">
-            <v>Monotosh Suman Das</v>
+          <cell r="E114">
+            <v>87</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
             <v>1719114</v>
           </cell>
-          <cell r="E115" t="str">
-            <v>Sanket Suman Agarwal</v>
+          <cell r="E115">
+            <v>88</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
             <v>1719115</v>
           </cell>
-          <cell r="E116" t="str">
-            <v>Arun Dobriyal Walia</v>
+          <cell r="E116">
+            <v>89</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
             <v>1719116</v>
           </cell>
-          <cell r="E117" t="str">
-            <v>Rishav Kishav Mishra</v>
+          <cell r="E117">
+            <v>90</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
             <v>1719117</v>
           </cell>
-          <cell r="E118" t="str">
-            <v>Aruni Kishav Choudhary</v>
+          <cell r="E118">
+            <v>91</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
             <v>1719118</v>
           </cell>
-          <cell r="E119" t="str">
-            <v>Gyan Baboo Jain</v>
+          <cell r="E119">
+            <v>92</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
             <v>1719119</v>
           </cell>
-          <cell r="E120" t="str">
-            <v>Rohit Romesh Jain</v>
+          <cell r="E120">
+            <v>93</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
             <v>1719120</v>
           </cell>
-          <cell r="E121" t="str">
-            <v>Anshul Gupta Jain</v>
+          <cell r="E121">
+            <v>94</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
             <v>1719121</v>
           </cell>
-          <cell r="E122" t="str">
-            <v>Yatendra Dalal Jain</v>
+          <cell r="E122">
+            <v>95</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
             <v>1719122</v>
           </cell>
-          <cell r="E123" t="str">
-            <v>Ravi Shankar Jain</v>
+          <cell r="E123">
+            <v>96</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
             <v>1719123</v>
           </cell>
-          <cell r="E124" t="str">
-            <v>Prav Chheda Singh</v>
+          <cell r="E124">
+            <v>97</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
             <v>1719124</v>
           </cell>
-          <cell r="E125" t="str">
-            <v>Anshuman Tripathi Singh</v>
+          <cell r="E125">
+            <v>98</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
             <v>1719125</v>
           </cell>
-          <cell r="E126" t="str">
-            <v>Kripasindhu Sarkar Singh</v>
+          <cell r="E126">
+            <v>99</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
             <v>1719126</v>
           </cell>
-          <cell r="E127" t="str">
-            <v>Gaurab Basu Singh</v>
+          <cell r="E127">
+            <v>100</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
             <v>1719127</v>
           </cell>
-          <cell r="E128" t="str">
-            <v>Naveen Kumar Singh</v>
+          <cell r="E128">
+            <v>101</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
             <v>1719128</v>
           </cell>
-          <cell r="E129" t="str">
-            <v>Ashis Kumar Sharma</v>
+          <cell r="E129">
+            <v>102</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
             <v>1719129</v>
           </cell>
-          <cell r="E130" t="str">
-            <v>Aniket Jha Yadav</v>
+          <cell r="E130">
+            <v>103</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
             <v>1719130</v>
           </cell>
-          <cell r="E131" t="str">
-            <v>Rahul Rakesh Sharma</v>
+          <cell r="E131">
+            <v>104</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
             <v>1719131</v>
           </cell>
-          <cell r="E132" t="str">
-            <v>Raj Mohan Saxena</v>
+          <cell r="E132">
+            <v>105</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
             <v>1719132</v>
           </cell>
-          <cell r="E133" t="str">
-            <v>Komal Sameer Shelatkar</v>
+          <cell r="E133">
+            <v>106</v>
           </cell>
         </row>
       </sheetData>
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B3" s="14" t="str">
         <f>[1]Sheet1!$E2</f>
-        <v>Vasant Govind Patil</v>
+        <v>A</v>
       </c>
       <c r="C3" s="17">
         <f>[2]PM!$C3</f>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="B4" s="14" t="str">
         <f>[1]Sheet1!$E3</f>
-        <v>Debjyoti Roy Patil</v>
+        <v>B</v>
       </c>
       <c r="C4" s="17">
         <f>[2]PM!$C4</f>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="B5" s="14" t="str">
         <f>[1]Sheet1!$E4</f>
-        <v>Kaustav Saha Patil</v>
+        <v>C</v>
       </c>
       <c r="C5" s="17">
         <f>[2]PM!$C5</f>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="B6" s="14" t="str">
         <f>[1]Sheet1!$E5</f>
-        <v>Debobrata Podder Patil</v>
+        <v>D</v>
       </c>
       <c r="C6" s="17">
         <f>[2]PM!$C6</f>
@@ -11852,7 +11852,7 @@
       </c>
       <c r="B7" s="14" t="str">
         <f>[1]Sheet1!$E6</f>
-        <v>Anurag Mark Topno</v>
+        <v>E</v>
       </c>
       <c r="C7" s="17">
         <f>[2]PM!$C7</f>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B8" s="14" t="str">
         <f>[1]Sheet1!$E7</f>
-        <v>Tarun Minz Topno</v>
+        <v>F</v>
       </c>
       <c r="C8" s="17">
         <f>[2]PM!$C8</f>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="B9" s="14" t="str">
         <f>[1]Sheet1!$E8</f>
-        <v>Praveen Rao Rokkam</v>
+        <v>G</v>
       </c>
       <c r="C9" s="17">
         <f>[2]PM!$C9</f>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="B10" s="14" t="str">
         <f>[1]Sheet1!$E9</f>
-        <v>Arindam Sharma Rokkam</v>
+        <v>H</v>
       </c>
       <c r="C10" s="17">
         <f>[2]PM!$C10</f>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="B11" s="14" t="str">
         <f>[1]Sheet1!$E10</f>
-        <v>Kaustubh Tripathi Rokkam</v>
+        <v>I</v>
       </c>
       <c r="C11" s="17">
         <f>[2]PM!$C11</f>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="B12" s="14" t="str">
         <f>[1]Sheet1!$E11</f>
-        <v>Nakul Gupta Rokkam</v>
+        <v>J</v>
       </c>
       <c r="C12" s="17">
         <f>[2]PM!$C12</f>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="B13" s="14" t="str">
         <f>[1]Sheet1!$E12</f>
-        <v>Gaurav Kumar Rokkam</v>
+        <v>K</v>
       </c>
       <c r="C13" s="17">
         <f>[2]PM!$C13</f>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="B14" s="14" t="str">
         <f>[1]Sheet1!$E13</f>
-        <v>Abhiram Kasina Rokkam</v>
+        <v>L</v>
       </c>
       <c r="C14" s="17">
         <f>[2]PM!$C14</f>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="B15" s="14" t="str">
         <f>[1]Sheet1!$E14</f>
-        <v>Biplab Sinha Rokkam</v>
+        <v>M</v>
       </c>
       <c r="C15" s="17">
         <f>[2]PM!$C15</f>
@@ -14237,7 +14237,7 @@
       </c>
       <c r="B16" s="14" t="str">
         <f>[1]Sheet1!$E15</f>
-        <v>M Jagan Mohan</v>
+        <v>N</v>
       </c>
       <c r="C16" s="17">
         <f>[2]PM!$C16</f>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="B17" s="14" t="str">
         <f>[1]Sheet1!$E16</f>
-        <v>Asit Parija Mohan</v>
+        <v>O</v>
       </c>
       <c r="C17" s="17">
         <f>[2]PM!$C17</f>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="B18" s="14" t="str">
         <f>[1]Sheet1!$E17</f>
-        <v>Shenoy Naresh Keshav</v>
+        <v>P</v>
       </c>
       <c r="C18" s="17">
         <f>[2]PM!$C18</f>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B19" s="14" t="str">
         <f>[1]Sheet1!$E18</f>
-        <v>Amit Kumar Suthar</v>
+        <v>Q</v>
       </c>
       <c r="C19" s="17">
         <f>[2]PM!$C19</f>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="B20" s="14" t="str">
         <f>[1]Sheet1!$E19</f>
-        <v>Amar Singh Patel</v>
+        <v>R</v>
       </c>
       <c r="C20" s="17">
         <f>[2]PM!$C20</f>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="B21" s="14" t="str">
         <f>[1]Sheet1!$E20</f>
-        <v>Rahul Jaimini Patel</v>
+        <v>S</v>
       </c>
       <c r="C21" s="17">
         <f>[2]PM!$C21</f>
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B22" s="14" t="str">
         <f>[1]Sheet1!$E21</f>
-        <v>Rohit Rajgarhia Patel</v>
+        <v>T</v>
       </c>
       <c r="C22" s="17">
         <f>[2]PM!$C22</f>
@@ -16092,7 +16092,7 @@
       </c>
       <c r="B23" s="14" t="str">
         <f>[1]Sheet1!$E22</f>
-        <v>Akshit Sharma Patel</v>
+        <v>U</v>
       </c>
       <c r="C23" s="17">
         <f>[2]PM!$C23</f>
@@ -16357,7 +16357,7 @@
       </c>
       <c r="B24" s="14" t="str">
         <f>[1]Sheet1!$E23</f>
-        <v>Divya Kumar Kala</v>
+        <v>V</v>
       </c>
       <c r="C24" s="17">
         <f>[2]PM!$C24</f>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="B25" s="14" t="str">
         <f>[1]Sheet1!$E24</f>
-        <v>Sri Harshad Kala</v>
+        <v>W</v>
       </c>
       <c r="C25" s="17">
         <f>[2]PM!$C25</f>
@@ -16887,7 +16887,7 @@
       </c>
       <c r="B26" s="14" t="str">
         <f>[1]Sheet1!$E25</f>
-        <v>Micky Mrinal Minz</v>
+        <v>X</v>
       </c>
       <c r="C26" s="17">
         <f>[2]PM!$C26</f>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="B27" s="14" t="str">
         <f>[1]Sheet1!$E26</f>
-        <v>Nishant Mundu Minz</v>
+        <v>Y</v>
       </c>
       <c r="C27" s="17">
         <f>[2]PM!$C27</f>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="B28" s="14" t="str">
         <f>[1]Sheet1!$E27</f>
-        <v>Vinu Rajashekhar Minz</v>
+        <v>Z</v>
       </c>
       <c r="C28" s="17">
         <f>[2]PM!$C28</f>
@@ -17680,9 +17680,9 @@
         <f>[1]Sheet1!$A28</f>
         <v>1719027</v>
       </c>
-      <c r="B29" s="14" t="str">
+      <c r="B29" s="14">
         <f>[1]Sheet1!$E28</f>
-        <v>Mainack Mondal Minz</v>
+        <v>1</v>
       </c>
       <c r="C29" s="17">
         <f>[2]PM!$C29</f>
@@ -17945,9 +17945,9 @@
         <f>[1]Sheet1!$A29</f>
         <v>1719028</v>
       </c>
-      <c r="B30" s="14" t="str">
+      <c r="B30" s="14">
         <f>[1]Sheet1!$E29</f>
-        <v>Debabrata Dey Minz</v>
+        <v>2</v>
       </c>
       <c r="C30" s="17">
         <f>[2]PM!$C30</f>
@@ -18210,9 +18210,9 @@
         <f>[1]Sheet1!$A30</f>
         <v>1719029</v>
       </c>
-      <c r="B31" s="14" t="str">
+      <c r="B31" s="14">
         <f>[1]Sheet1!$E30</f>
-        <v>Vivekananda Najumudheen Bhat</v>
+        <v>3</v>
       </c>
       <c r="C31" s="17">
         <f>[2]PM!$C31</f>
@@ -18475,9 +18475,9 @@
         <f>[1]Sheet1!$A31</f>
         <v>1719030</v>
       </c>
-      <c r="B32" s="14" t="str">
+      <c r="B32" s="14">
         <f>[1]Sheet1!$E31</f>
-        <v>Praveen Ankit Sonare</v>
+        <v>4</v>
       </c>
       <c r="C32" s="17">
         <f>[2]PM!$C32</f>
@@ -18740,9 +18740,9 @@
         <f>[1]Sheet1!$A32</f>
         <v>1719031</v>
       </c>
-      <c r="B33" s="14" t="str">
+      <c r="B33" s="14">
         <f>[1]Sheet1!$E32</f>
-        <v>Ravi Rattan Sonare</v>
+        <v>5</v>
       </c>
       <c r="C33" s="17">
         <f>[2]PM!$C33</f>
@@ -19005,9 +19005,9 @@
         <f>[1]Sheet1!$A33</f>
         <v>1719032</v>
       </c>
-      <c r="B34" s="14" t="str">
+      <c r="B34" s="14">
         <f>[1]Sheet1!$E33</f>
-        <v>Anindya Bhowmik Sonare</v>
+        <v>6</v>
       </c>
       <c r="C34" s="17">
         <f>[2]PM!$C34</f>
@@ -19270,9 +19270,9 @@
         <f>[1]Sheet1!$A34</f>
         <v>1719033</v>
       </c>
-      <c r="B35" s="14" t="str">
+      <c r="B35" s="14">
         <f>[1]Sheet1!$E34</f>
-        <v>Bishal Lama Sonare</v>
+        <v>7</v>
       </c>
       <c r="C35" s="17">
         <f>[2]PM!$C35</f>
@@ -19535,9 +19535,9 @@
         <f>[1]Sheet1!$A35</f>
         <v>1719034</v>
       </c>
-      <c r="B36" s="14" t="str">
+      <c r="B36" s="14">
         <f>[1]Sheet1!$E35</f>
-        <v>Arun Kumar Saragadam</v>
+        <v>8</v>
       </c>
       <c r="C36" s="17">
         <f>[2]PM!$C36</f>
@@ -19800,9 +19800,9 @@
         <f>[1]Sheet1!$A36</f>
         <v>1719035</v>
       </c>
-      <c r="B37" s="14" t="str">
+      <c r="B37" s="14">
         <f>[1]Sheet1!$E36</f>
-        <v>Arit Kumar Mondal</v>
+        <v>9</v>
       </c>
       <c r="C37" s="17">
         <f>[2]PM!$C37</f>
@@ -20065,9 +20065,9 @@
         <f>[1]Sheet1!$A37</f>
         <v>1719036</v>
       </c>
-      <c r="B38" s="14" t="str">
+      <c r="B38" s="14">
         <f>[1]Sheet1!$E37</f>
-        <v>Akash Rao Mondal</v>
+        <v>10</v>
       </c>
       <c r="C38" s="17">
         <f>[2]PM!$C38</f>
@@ -20330,9 +20330,9 @@
         <f>[1]Sheet1!$A38</f>
         <v>1719037</v>
       </c>
-      <c r="B39" s="14" t="str">
+      <c r="B39" s="14">
         <f>[1]Sheet1!$E38</f>
-        <v>Marut Agarwal Mondal</v>
+        <v>11</v>
       </c>
       <c r="C39" s="17">
         <f>[2]PM!$C39</f>
@@ -20595,9 +20595,9 @@
         <f>[1]Sheet1!$A39</f>
         <v>1719038</v>
       </c>
-      <c r="B40" s="14" t="str">
+      <c r="B40" s="14">
         <f>[1]Sheet1!$E39</f>
-        <v>Abhishek Pratap Singh</v>
+        <v>12</v>
       </c>
       <c r="C40" s="17">
         <f>[2]PM!$C40</f>
@@ -20860,9 +20860,9 @@
         <f>[1]Sheet1!$A40</f>
         <v>1719039</v>
       </c>
-      <c r="B41" s="14" t="str">
+      <c r="B41" s="14">
         <f>[1]Sheet1!$E40</f>
-        <v>Sushant Kumar Singh</v>
+        <v>13</v>
       </c>
       <c r="C41" s="17">
         <f>[2]PM!$C41</f>
@@ -21125,9 +21125,9 @@
         <f>[1]Sheet1!$A41</f>
         <v>1719040</v>
       </c>
-      <c r="B42" s="14" t="str">
+      <c r="B42" s="14">
         <f>[1]Sheet1!$E41</f>
-        <v>Arpit Mishra Singh</v>
+        <v>14</v>
       </c>
       <c r="C42" s="17">
         <f>[2]PM!$C42</f>
@@ -21390,9 +21390,9 @@
         <f>[1]Sheet1!$A42</f>
         <v>1719041</v>
       </c>
-      <c r="B43" s="14" t="str">
+      <c r="B43" s="14">
         <f>[1]Sheet1!$E42</f>
-        <v>Abhinav Gupta Singh</v>
+        <v>15</v>
       </c>
       <c r="C43" s="17">
         <f>[2]PM!$C43</f>
@@ -21655,9 +21655,9 @@
         <f>[1]Sheet1!$A43</f>
         <v>1719042</v>
       </c>
-      <c r="B44" s="14" t="str">
+      <c r="B44" s="14">
         <f>[1]Sheet1!$E43</f>
-        <v>Togarrati Venkata Nagesh</v>
+        <v>16</v>
       </c>
       <c r="C44" s="17">
         <f>[2]PM!$C44</f>
@@ -21920,9 +21920,9 @@
         <f>[1]Sheet1!$A44</f>
         <v>1719043</v>
       </c>
-      <c r="B45" s="14" t="str">
+      <c r="B45" s="14">
         <f>[1]Sheet1!$E44</f>
-        <v>Pam Revanth Nagesh</v>
+        <v>17</v>
       </c>
       <c r="C45" s="17">
         <f>[2]PM!$C45</f>
@@ -22185,9 +22185,9 @@
         <f>[1]Sheet1!$A45</f>
         <v>1719044</v>
       </c>
-      <c r="B46" s="14" t="str">
+      <c r="B46" s="14">
         <f>[1]Sheet1!$E45</f>
-        <v>Gourav Khaneja Nagesh</v>
+        <v>18</v>
       </c>
       <c r="C46" s="17">
         <f>[2]PM!$C46</f>
@@ -22450,9 +22450,9 @@
         <f>[1]Sheet1!$A46</f>
         <v>1719045</v>
       </c>
-      <c r="B47" s="14" t="str">
+      <c r="B47" s="14">
         <f>[1]Sheet1!$E46</f>
-        <v>Mayank Jaiswal Nagesh</v>
+        <v>19</v>
       </c>
       <c r="C47" s="17">
         <f>[2]PM!$C47</f>
@@ -22715,9 +22715,9 @@
         <f>[1]Sheet1!$A47</f>
         <v>1719046</v>
       </c>
-      <c r="B48" s="14" t="str">
+      <c r="B48" s="14">
         <f>[1]Sheet1!$E47</f>
-        <v>Amit Shanker Nagesh</v>
+        <v>20</v>
       </c>
       <c r="C48" s="17">
         <f>[2]PM!$C48</f>
@@ -22980,9 +22980,9 @@
         <f>[1]Sheet1!$A48</f>
         <v>1719047</v>
       </c>
-      <c r="B49" s="14" t="str">
+      <c r="B49" s="14">
         <f>[1]Sheet1!$E48</f>
-        <v>Abhinav Anand Nagesh</v>
+        <v>21</v>
       </c>
       <c r="C49" s="17">
         <f>[2]PM!$C49</f>
@@ -23245,9 +23245,9 @@
         <f>[1]Sheet1!$A49</f>
         <v>1719048</v>
       </c>
-      <c r="B50" s="14" t="str">
+      <c r="B50" s="14">
         <f>[1]Sheet1!$E49</f>
-        <v>Varun K Choudhary</v>
+        <v>22</v>
       </c>
       <c r="C50" s="17">
         <f>[2]PM!$C50</f>
@@ -23510,9 +23510,9 @@
         <f>[1]Sheet1!$A50</f>
         <v>1719049</v>
       </c>
-      <c r="B51" s="14" t="str">
+      <c r="B51" s="14">
         <f>[1]Sheet1!$E50</f>
-        <v>Diptesh Chatterjee Choudhary</v>
+        <v>23</v>
       </c>
       <c r="C51" s="17">
         <f>[2]PM!$C51</f>
@@ -23775,9 +23775,9 @@
         <f>[1]Sheet1!$A51</f>
         <v>1719050</v>
       </c>
-      <c r="B52" s="14" t="str">
+      <c r="B52" s="14">
         <f>[1]Sheet1!$E51</f>
-        <v>Anuj Kumar Singh</v>
+        <v>24</v>
       </c>
       <c r="C52" s="17">
         <f>[2]PM!$C52</f>
@@ -24040,9 +24040,9 @@
         <f>[1]Sheet1!$A52</f>
         <v>1719051</v>
       </c>
-      <c r="B53" s="14" t="str">
+      <c r="B53" s="14">
         <f>[1]Sheet1!$E52</f>
-        <v>Dilpreet Singh Singh</v>
+        <v>25</v>
       </c>
       <c r="C53" s="17">
         <f>[2]PM!$C53</f>
@@ -24305,9 +24305,9 @@
         <f>[1]Sheet1!$A53</f>
         <v>1719052</v>
       </c>
-      <c r="B54" s="14" t="str">
+      <c r="B54" s="14">
         <f>[1]Sheet1!$E53</f>
-        <v>Amit Sharma Singh</v>
+        <v>26</v>
       </c>
       <c r="C54" s="17">
         <f>[2]PM!$C54</f>
@@ -24570,9 +24570,9 @@
         <f>[1]Sheet1!$A54</f>
         <v>1719053</v>
       </c>
-      <c r="B55" s="14" t="str">
+      <c r="B55" s="14">
         <f>[1]Sheet1!$E54</f>
-        <v>Kammara Yashwanth Kumar</v>
+        <v>27</v>
       </c>
       <c r="C55" s="17">
         <f>[2]PM!$C55</f>
@@ -24835,9 +24835,9 @@
         <f>[1]Sheet1!$A55</f>
         <v>1719054</v>
       </c>
-      <c r="B56" s="14" t="str">
+      <c r="B56" s="14">
         <f>[1]Sheet1!$E55</f>
-        <v>Mani Kumar Nallani</v>
+        <v>28</v>
       </c>
       <c r="C56" s="17">
         <f>[2]PM!$C56</f>
@@ -25100,9 +25100,9 @@
         <f>[1]Sheet1!$A56</f>
         <v>1719055</v>
       </c>
-      <c r="B57" s="14" t="str">
+      <c r="B57" s="14">
         <f>[1]Sheet1!$E56</f>
-        <v>Rahul Saxena Nallani</v>
+        <v>29</v>
       </c>
       <c r="C57" s="17">
         <f>[2]PM!$C57</f>
@@ -25365,9 +25365,9 @@
         <f>[1]Sheet1!$A57</f>
         <v>1719056</v>
       </c>
-      <c r="B58" s="14" t="str">
+      <c r="B58" s="14">
         <f>[1]Sheet1!$E57</f>
-        <v>Sahil Goyal Nallani</v>
+        <v>30</v>
       </c>
       <c r="C58" s="17">
         <f>[2]PM!$C58</f>
@@ -25630,9 +25630,9 @@
         <f>[1]Sheet1!$A58</f>
         <v>1719057</v>
       </c>
-      <c r="B59" s="14" t="str">
+      <c r="B59" s="14">
         <f>[1]Sheet1!$E58</f>
-        <v>Dodda Raviteja Nallani</v>
+        <v>31</v>
       </c>
       <c r="C59" s="17">
         <f>[2]PM!$C59</f>
@@ -25895,9 +25895,9 @@
         <f>[1]Sheet1!$A59</f>
         <v>1719058</v>
       </c>
-      <c r="B60" s="14" t="str">
+      <c r="B60" s="14">
         <f>[1]Sheet1!$E59</f>
-        <v>Anirudha Patro Nallani</v>
+        <v>32</v>
       </c>
       <c r="C60" s="17">
         <f>[2]PM!$C60</f>
@@ -26160,9 +26160,9 @@
         <f>[1]Sheet1!$A60</f>
         <v>1719059</v>
       </c>
-      <c r="B61" s="14" t="str">
+      <c r="B61" s="14">
         <f>[1]Sheet1!$E60</f>
-        <v>Mullapudi Pavan Nithin</v>
+        <v>33</v>
       </c>
       <c r="C61" s="17">
         <f>[2]PM!$C61</f>
@@ -26425,9 +26425,9 @@
         <f>[1]Sheet1!$A61</f>
         <v>1719060</v>
       </c>
-      <c r="B62" s="14" t="str">
+      <c r="B62" s="14">
         <f>[1]Sheet1!$E61</f>
-        <v>Sameer Hembrom Nithin</v>
+        <v>34</v>
       </c>
       <c r="C62" s="17">
         <f>[2]PM!$C62</f>
@@ -26690,9 +26690,9 @@
         <f>[1]Sheet1!$A62</f>
         <v>1719061</v>
       </c>
-      <c r="B63" s="14" t="str">
+      <c r="B63" s="14">
         <f>[1]Sheet1!$E62</f>
-        <v>Ayan Mazumdar Nithin</v>
+        <v>35</v>
       </c>
       <c r="C63" s="17">
         <f>[2]PM!$C63</f>
@@ -26955,9 +26955,9 @@
         <f>[1]Sheet1!$A63</f>
         <v>1719062</v>
       </c>
-      <c r="B64" s="14" t="str">
+      <c r="B64" s="14">
         <f>[1]Sheet1!$E63</f>
-        <v>Kiran Kumar Bollam</v>
+        <v>36</v>
       </c>
       <c r="C64" s="17">
         <f>[2]PM!$C64</f>
@@ -27220,9 +27220,9 @@
         <f>[1]Sheet1!$A64</f>
         <v>1719063</v>
       </c>
-      <c r="B65" s="14" t="str">
+      <c r="B65" s="14">
         <f>[1]Sheet1!$E64</f>
-        <v>Biswajyoti Das Bollam</v>
+        <v>37</v>
       </c>
       <c r="C65" s="17">
         <f>[2]PM!$C65</f>
@@ -27485,9 +27485,9 @@
         <f>[1]Sheet1!$A65</f>
         <v>1719064</v>
       </c>
-      <c r="B66" s="14" t="str">
+      <c r="B66" s="14">
         <f>[1]Sheet1!$E65</f>
-        <v>Arka Aloke Bhattacharya</v>
+        <v>38</v>
       </c>
       <c r="C66" s="17">
         <f>[2]PM!$C66</f>
@@ -27750,9 +27750,9 @@
         <f>[1]Sheet1!$A66</f>
         <v>1719065</v>
       </c>
-      <c r="B67" s="14" t="str">
+      <c r="B67" s="14">
         <f>[1]Sheet1!$E66</f>
-        <v>Abhijeet Kumar Bhattacharya</v>
+        <v>39</v>
       </c>
       <c r="C67" s="17">
         <f>[2]PM!$C67</f>
@@ -28015,9 +28015,9 @@
         <f>[1]Sheet1!$A67</f>
         <v>1719066</v>
       </c>
-      <c r="B68" s="14" t="str">
+      <c r="B68" s="14">
         <f>[1]Sheet1!$E67</f>
-        <v>Alok Kumar Yadav</v>
+        <v>40</v>
       </c>
       <c r="C68" s="17">
         <f>[2]PM!$C68</f>
@@ -28280,9 +28280,9 @@
         <f>[1]Sheet1!$A68</f>
         <v>1719067</v>
       </c>
-      <c r="B69" s="14" t="str">
+      <c r="B69" s="14">
         <f>[1]Sheet1!$E68</f>
-        <v>Anshul Rai Yadav</v>
+        <v>41</v>
       </c>
       <c r="C69" s="17">
         <f>[2]PM!$C69</f>
@@ -28545,9 +28545,9 @@
         <f>[1]Sheet1!$A69</f>
         <v>1719068</v>
       </c>
-      <c r="B70" s="14" t="str">
+      <c r="B70" s="14">
         <f>[1]Sheet1!$E69</f>
-        <v>Mohit Singh Yadav</v>
+        <v>42</v>
       </c>
       <c r="C70" s="17">
         <f>[2]PM!$C70</f>
@@ -28810,9 +28810,9 @@
         <f>[1]Sheet1!$A70</f>
         <v>1719069</v>
       </c>
-      <c r="B71" s="14" t="str">
+      <c r="B71" s="14">
         <f>[1]Sheet1!$E70</f>
-        <v>Biswajeet Mistry Yadav</v>
+        <v>43</v>
       </c>
       <c r="C71" s="17">
         <f>[2]PM!$C71</f>
@@ -29075,9 +29075,9 @@
         <f>[1]Sheet1!$A71</f>
         <v>1719070</v>
       </c>
-      <c r="B72" s="14" t="str">
+      <c r="B72" s="14">
         <f>[1]Sheet1!$E71</f>
-        <v>Badal Murmu Yadav</v>
+        <v>44</v>
       </c>
       <c r="C72" s="17">
         <f>[2]PM!$C72</f>
@@ -29340,9 +29340,9 @@
         <f>[1]Sheet1!$A72</f>
         <v>1719071</v>
       </c>
-      <c r="B73" s="14" t="str">
+      <c r="B73" s="14">
         <f>[1]Sheet1!$E72</f>
-        <v>Chinthala Sathish Chandra</v>
+        <v>45</v>
       </c>
       <c r="C73" s="17">
         <f>[2]PM!$C73</f>
@@ -29605,9 +29605,9 @@
         <f>[1]Sheet1!$A73</f>
         <v>1719072</v>
       </c>
-      <c r="B74" s="14" t="str">
+      <c r="B74" s="14">
         <f>[1]Sheet1!$E73</f>
-        <v>Vadde Sanjeev Chandra</v>
+        <v>46</v>
       </c>
       <c r="C74" s="17">
         <f>[2]PM!$C74</f>
@@ -29870,9 +29870,9 @@
         <f>[1]Sheet1!$A74</f>
         <v>1719073</v>
       </c>
-      <c r="B75" s="14" t="str">
+      <c r="B75" s="14">
         <f>[1]Sheet1!$E74</f>
-        <v>B Rajender Naik</v>
+        <v>47</v>
       </c>
       <c r="C75" s="17">
         <f>[2]PM!$C75</f>
@@ -30135,9 +30135,9 @@
         <f>[1]Sheet1!$A75</f>
         <v>1719074</v>
       </c>
-      <c r="B76" s="14" t="str">
+      <c r="B76" s="14">
         <f>[1]Sheet1!$E75</f>
-        <v>Gaurav Mehta Naik</v>
+        <v>48</v>
       </c>
       <c r="C76" s="17">
         <f>[2]PM!$C76</f>
@@ -30400,9 +30400,9 @@
         <f>[1]Sheet1!$A76</f>
         <v>1719075</v>
       </c>
-      <c r="B77" s="14" t="str">
+      <c r="B77" s="14">
         <f>[1]Sheet1!$E76</f>
-        <v>Naveen Kumar Molleti</v>
+        <v>49</v>
       </c>
       <c r="C77" s="17">
         <f>[2]PM!$C77</f>
@@ -30665,9 +30665,9 @@
         <f>[1]Sheet1!$A77</f>
         <v>1719076</v>
       </c>
-      <c r="B78" s="14" t="str">
+      <c r="B78" s="14">
         <f>[1]Sheet1!$E77</f>
-        <v>Rahul Kumar Srivastava</v>
+        <v>50</v>
       </c>
       <c r="C78" s="17">
         <f>[2]PM!$C78</f>
@@ -30930,9 +30930,9 @@
         <f>[1]Sheet1!$A78</f>
         <v>1719077</v>
       </c>
-      <c r="B79" s="14" t="str">
+      <c r="B79" s="14">
         <f>[1]Sheet1!$E78</f>
-        <v>Saurabh Kumar Goyal</v>
+        <v>51</v>
       </c>
       <c r="C79" s="17">
         <f>[2]PM!$C79</f>
@@ -31195,9 +31195,9 @@
         <f>[1]Sheet1!$A79</f>
         <v>1719078</v>
       </c>
-      <c r="B80" s="14" t="str">
+      <c r="B80" s="14">
         <f>[1]Sheet1!$E79</f>
-        <v>Narendra Kumar Tangella</v>
+        <v>52</v>
       </c>
       <c r="C80" s="17">
         <f>[2]PM!$C80</f>
@@ -31460,9 +31460,9 @@
         <f>[1]Sheet1!$A80</f>
         <v>1719079</v>
       </c>
-      <c r="B81" s="14" t="str">
+      <c r="B81" s="14">
         <f>[1]Sheet1!$E80</f>
-        <v>Nandam Karthik Kumar</v>
+        <v>53</v>
       </c>
       <c r="C81" s="17">
         <f>[2]PM!$C81</f>
@@ -31725,9 +31725,9 @@
         <f>[1]Sheet1!$A81</f>
         <v>1719080</v>
       </c>
-      <c r="B82" s="14" t="str">
+      <c r="B82" s="14">
         <f>[1]Sheet1!$E81</f>
-        <v>Atul Kumar Gupta</v>
+        <v>54</v>
       </c>
       <c r="C82" s="17">
         <f>[2]PM!$C82</f>
@@ -31990,9 +31990,9 @@
         <f>[1]Sheet1!$A82</f>
         <v>1719081</v>
       </c>
-      <c r="B83" s="14" t="str">
+      <c r="B83" s="14">
         <f>[1]Sheet1!$E82</f>
-        <v>Harsh Vardhan Agarwal</v>
+        <v>55</v>
       </c>
       <c r="C83" s="17">
         <f>[2]PM!$C83</f>
@@ -32255,9 +32255,9 @@
         <f>[1]Sheet1!$A83</f>
         <v>1719082</v>
       </c>
-      <c r="B84" s="14" t="str">
+      <c r="B84" s="14">
         <f>[1]Sheet1!$E83</f>
-        <v>Rayman Preet Agarwal</v>
+        <v>56</v>
       </c>
       <c r="C84" s="17">
         <f>[2]PM!$C84</f>
@@ -32520,9 +32520,9 @@
         <f>[1]Sheet1!$A84</f>
         <v>1719083</v>
       </c>
-      <c r="B85" s="14" t="str">
+      <c r="B85" s="14">
         <f>[1]Sheet1!$E84</f>
-        <v>Aniket Nayak Agarwal</v>
+        <v>57</v>
       </c>
       <c r="C85" s="17">
         <f>[2]PM!$C85</f>
@@ -32785,9 +32785,9 @@
         <f>[1]Sheet1!$A85</f>
         <v>1719084</v>
       </c>
-      <c r="B86" s="14" t="str">
+      <c r="B86" s="14">
         <f>[1]Sheet1!$E85</f>
-        <v>Siddharth Raghuvansi Agarwal</v>
+        <v>58</v>
       </c>
       <c r="C86" s="17">
         <f>[2]PM!$C86</f>
@@ -33050,9 +33050,9 @@
         <f>[1]Sheet1!$A86</f>
         <v>1719085</v>
       </c>
-      <c r="B87" s="14" t="str">
+      <c r="B87" s="14">
         <f>[1]Sheet1!$E86</f>
-        <v>Sayantan Ghosh Agarwal</v>
+        <v>59</v>
       </c>
       <c r="C87" s="17">
         <f>[2]PM!$C87</f>
@@ -33315,9 +33315,9 @@
         <f>[1]Sheet1!$A87</f>
         <v>1719086</v>
       </c>
-      <c r="B88" s="14" t="str">
+      <c r="B88" s="14">
         <f>[1]Sheet1!$E87</f>
-        <v>Aurosish Mishra Agarwal</v>
+        <v>60</v>
       </c>
       <c r="C88" s="17">
         <f>[2]PM!$C88</f>
@@ -33580,9 +33580,9 @@
         <f>[1]Sheet1!$A88</f>
         <v>1719087</v>
       </c>
-      <c r="B89" s="14" t="str">
+      <c r="B89" s="14">
         <f>[1]Sheet1!$E88</f>
-        <v>Ashish Jhunjhunwala Agarwal</v>
+        <v>61</v>
       </c>
       <c r="C89" s="17">
         <f>[2]PM!$C89</f>
@@ -33845,9 +33845,9 @@
         <f>[1]Sheet1!$A89</f>
         <v>1719088</v>
       </c>
-      <c r="B90" s="14" t="str">
+      <c r="B90" s="14">
         <f>[1]Sheet1!$E89</f>
-        <v>Sujan Kundu Agarwal</v>
+        <v>62</v>
       </c>
       <c r="C90" s="17">
         <f>[2]PM!$C90</f>
@@ -34110,9 +34110,9 @@
         <f>[1]Sheet1!$A90</f>
         <v>1719089</v>
       </c>
-      <c r="B91" s="14" t="str">
+      <c r="B91" s="14">
         <f>[1]Sheet1!$E90</f>
-        <v>Bivas Mitra Agarwal</v>
+        <v>63</v>
       </c>
       <c r="C91" s="17">
         <f>[2]PM!$C91</f>
@@ -34375,9 +34375,9 @@
         <f>[1]Sheet1!$A91</f>
         <v>1719090</v>
       </c>
-      <c r="B92" s="14" t="str">
+      <c r="B92" s="14">
         <f>[1]Sheet1!$E91</f>
-        <v>Sujan Kumar Saha</v>
+        <v>64</v>
       </c>
       <c r="C92" s="17">
         <f>[2]PM!$C92</f>
@@ -34640,9 +34640,9 @@
         <f>[1]Sheet1!$A92</f>
         <v>1719091</v>
       </c>
-      <c r="B93" s="14" t="str">
+      <c r="B93" s="14">
         <f>[1]Sheet1!$E92</f>
-        <v>Plaban Kumar Bhowmick</v>
+        <v>65</v>
       </c>
       <c r="C93" s="17">
         <f>[2]PM!$C93</f>
@@ -34905,9 +34905,9 @@
         <f>[1]Sheet1!$A93</f>
         <v>1719092</v>
       </c>
-      <c r="B94" s="14" t="str">
+      <c r="B94" s="14">
         <f>[1]Sheet1!$E93</f>
-        <v>Arnab Kumar Sarkar</v>
+        <v>66</v>
       </c>
       <c r="C94" s="17">
         <f>[2]PM!$C94</f>
@@ -35170,9 +35170,9 @@
         <f>[1]Sheet1!$A94</f>
         <v>1719093</v>
       </c>
-      <c r="B95" s="14" t="str">
+      <c r="B95" s="14">
         <f>[1]Sheet1!$E94</f>
-        <v>Alimpan Barua Boro</v>
+        <v>67</v>
       </c>
       <c r="C95" s="17">
         <f>[2]PM!$C95</f>
@@ -35435,9 +35435,9 @@
         <f>[1]Sheet1!$A95</f>
         <v>1719094</v>
       </c>
-      <c r="B96" s="14" t="str">
+      <c r="B96" s="14">
         <f>[1]Sheet1!$E95</f>
-        <v>Keshav Prawasi Singh</v>
+        <v>68</v>
       </c>
       <c r="C96" s="17">
         <f>[2]PM!$C96</f>
@@ -35700,9 +35700,9 @@
         <f>[1]Sheet1!$A96</f>
         <v>1719095</v>
       </c>
-      <c r="B97" s="14" t="str">
+      <c r="B97" s="14">
         <f>[1]Sheet1!$E96</f>
-        <v>Neetesh Gupta Singh</v>
+        <v>69</v>
       </c>
       <c r="C97" s="17">
         <f>[2]PM!$C97</f>
@@ -35965,9 +35965,9 @@
         <f>[1]Sheet1!$A97</f>
         <v>1719096</v>
       </c>
-      <c r="B98" s="14" t="str">
+      <c r="B98" s="14">
         <f>[1]Sheet1!$E97</f>
-        <v>Naveen Kumar Singh</v>
+        <v>70</v>
       </c>
       <c r="C98" s="17">
         <f>[2]PM!$C98</f>
@@ -36230,9 +36230,9 @@
         <f>[1]Sheet1!$A98</f>
         <v>1719097</v>
       </c>
-      <c r="B99" s="14" t="str">
+      <c r="B99" s="14">
         <f>[1]Sheet1!$E98</f>
-        <v>Sumit Sinha Singh</v>
+        <v>71</v>
       </c>
       <c r="C99" s="17">
         <f>[2]PM!$C99</f>
@@ -36495,9 +36495,9 @@
         <f>[1]Sheet1!$A99</f>
         <v>1719098</v>
       </c>
-      <c r="B100" s="14" t="str">
+      <c r="B100" s="14">
         <f>[1]Sheet1!$E99</f>
-        <v>Korlam Gautam Singh</v>
+        <v>72</v>
       </c>
       <c r="C100" s="17">
         <f>[2]PM!$C100</f>
@@ -36760,9 +36760,9 @@
         <f>[1]Sheet1!$A100</f>
         <v>1719099</v>
       </c>
-      <c r="B101" s="14" t="str">
+      <c r="B101" s="14">
         <f>[1]Sheet1!$E100</f>
-        <v>Dhoble Sumit Singh</v>
+        <v>73</v>
       </c>
       <c r="C101" s="17">
         <f>[2]PM!$C101</f>
@@ -37025,9 +37025,9 @@
         <f>[1]Sheet1!$A101</f>
         <v>1719100</v>
       </c>
-      <c r="B102" s="14" t="str">
+      <c r="B102" s="14">
         <f>[1]Sheet1!$E101</f>
-        <v>Nandish Tella Naidu</v>
+        <v>74</v>
       </c>
       <c r="C102" s="17">
         <f>[2]PM!$C102</f>
@@ -37290,9 +37290,9 @@
         <f>[1]Sheet1!$A102</f>
         <v>1719101</v>
       </c>
-      <c r="B103" s="14" t="str">
+      <c r="B103" s="14">
         <f>[1]Sheet1!$E102</f>
-        <v>Gautam Kumar Reddy</v>
+        <v>75</v>
       </c>
       <c r="C103" s="17">
         <f>[2]PM!$C103</f>
@@ -37555,9 +37555,9 @@
         <f>[1]Sheet1!$A103</f>
         <v>1719102</v>
       </c>
-      <c r="B104" s="14" t="str">
+      <c r="B104" s="14">
         <f>[1]Sheet1!$E103</f>
-        <v>Ramdutt Kishav Sharma</v>
+        <v>76</v>
       </c>
       <c r="C104" s="17">
         <f>[2]PM!$C104</f>
@@ -37820,9 +37820,9 @@
         <f>[1]Sheet1!$A104</f>
         <v>1719103</v>
       </c>
-      <c r="B105" s="14" t="str">
+      <c r="B105" s="14">
         <f>[1]Sheet1!$E104</f>
-        <v>Pratik Kishav Agarwal</v>
+        <v>77</v>
       </c>
       <c r="C105" s="17">
         <f>[2]PM!$C105</f>
@@ -38085,9 +38085,9 @@
         <f>[1]Sheet1!$A105</f>
         <v>1719104</v>
       </c>
-      <c r="B106" s="14" t="str">
+      <c r="B106" s="14">
         <f>[1]Sheet1!$E105</f>
-        <v>Rishav Kishav Agarwal</v>
+        <v>78</v>
       </c>
       <c r="C106" s="17">
         <f>[2]PM!$C106</f>
@@ -38350,9 +38350,9 @@
         <f>[1]Sheet1!$A106</f>
         <v>1719105</v>
       </c>
-      <c r="B107" s="14" t="str">
+      <c r="B107" s="14">
         <f>[1]Sheet1!$E106</f>
-        <v>Rakesh Prudhvi Kumar</v>
+        <v>79</v>
       </c>
       <c r="C107" s="17">
         <f>[2]PM!$C107</f>
@@ -38615,9 +38615,9 @@
         <f>[1]Sheet1!$A107</f>
         <v>1719106</v>
       </c>
-      <c r="B108" s="14" t="str">
+      <c r="B108" s="14">
         <f>[1]Sheet1!$E107</f>
-        <v>Sayak Mitra Kumar</v>
+        <v>80</v>
       </c>
       <c r="C108" s="17">
         <f>[2]PM!$C108</f>
@@ -38880,9 +38880,9 @@
         <f>[1]Sheet1!$A108</f>
         <v>1719107</v>
       </c>
-      <c r="B109" s="14" t="str">
+      <c r="B109" s="14">
         <f>[1]Sheet1!$E108</f>
-        <v>Achin Gautam Agarwal</v>
+        <v>81</v>
       </c>
       <c r="C109" s="17">
         <f>[2]PM!$C109</f>
@@ -39145,9 +39145,9 @@
         <f>[1]Sheet1!$A109</f>
         <v>1719108</v>
       </c>
-      <c r="B110" s="14" t="str">
+      <c r="B110" s="14">
         <f>[1]Sheet1!$E109</f>
-        <v>Avishek Gautam Banerjee</v>
+        <v>82</v>
       </c>
       <c r="C110" s="17">
         <f>[2]PM!$C110</f>
@@ -39410,9 +39410,9 @@
         <f>[1]Sheet1!$A110</f>
         <v>1719109</v>
       </c>
-      <c r="B111" s="14" t="str">
+      <c r="B111" s="14">
         <f>[1]Sheet1!$E110</f>
-        <v>Vighnesh Gautam Avadhani</v>
+        <v>83</v>
       </c>
       <c r="C111" s="17">
         <f>[2]PM!$C111</f>
@@ -39675,9 +39675,9 @@
         <f>[1]Sheet1!$A111</f>
         <v>1719110</v>
       </c>
-      <c r="B112" s="14" t="str">
+      <c r="B112" s="14">
         <f>[1]Sheet1!$E111</f>
-        <v>Abhinav Gautam Chandel</v>
+        <v>84</v>
       </c>
       <c r="C112" s="17">
         <f>[2]PM!$C112</f>
@@ -39940,9 +39940,9 @@
         <f>[1]Sheet1!$A112</f>
         <v>1719111</v>
       </c>
-      <c r="B113" s="14" t="str">
+      <c r="B113" s="14">
         <f>[1]Sheet1!$E112</f>
-        <v>Arvind Gautam Das</v>
+        <v>85</v>
       </c>
       <c r="C113" s="17">
         <f>[2]PM!$C113</f>
@@ -40205,9 +40205,9 @@
         <f>[1]Sheet1!$A113</f>
         <v>1719112</v>
       </c>
-      <c r="B114" s="14" t="str">
+      <c r="B114" s="14">
         <f>[1]Sheet1!$E113</f>
-        <v>Sunita Suman Das</v>
+        <v>86</v>
       </c>
       <c r="C114" s="17">
         <f>[2]PM!$C114</f>
@@ -40470,9 +40470,9 @@
         <f>[1]Sheet1!$A114</f>
         <v>1719113</v>
       </c>
-      <c r="B115" s="14" t="str">
+      <c r="B115" s="14">
         <f>[1]Sheet1!$E114</f>
-        <v>Monotosh Suman Das</v>
+        <v>87</v>
       </c>
       <c r="C115" s="17">
         <f>[2]PM!$C115</f>
@@ -40735,9 +40735,9 @@
         <f>[1]Sheet1!$A115</f>
         <v>1719114</v>
       </c>
-      <c r="B116" s="14" t="str">
+      <c r="B116" s="14">
         <f>[1]Sheet1!$E115</f>
-        <v>Sanket Suman Agarwal</v>
+        <v>88</v>
       </c>
       <c r="C116" s="17">
         <f>[2]PM!$C116</f>
@@ -41000,9 +41000,9 @@
         <f>[1]Sheet1!$A116</f>
         <v>1719115</v>
       </c>
-      <c r="B117" s="14" t="str">
+      <c r="B117" s="14">
         <f>[1]Sheet1!$E116</f>
-        <v>Arun Dobriyal Walia</v>
+        <v>89</v>
       </c>
       <c r="C117" s="17">
         <f>[2]PM!$C117</f>
@@ -41265,9 +41265,9 @@
         <f>[1]Sheet1!$A117</f>
         <v>1719116</v>
       </c>
-      <c r="B118" s="14" t="str">
+      <c r="B118" s="14">
         <f>[1]Sheet1!$E117</f>
-        <v>Rishav Kishav Mishra</v>
+        <v>90</v>
       </c>
       <c r="C118" s="17">
         <f>[2]PM!$C118</f>
@@ -41530,9 +41530,9 @@
         <f>[1]Sheet1!$A118</f>
         <v>1719117</v>
       </c>
-      <c r="B119" s="14" t="str">
+      <c r="B119" s="14">
         <f>[1]Sheet1!$E118</f>
-        <v>Aruni Kishav Choudhary</v>
+        <v>91</v>
       </c>
       <c r="C119" s="17">
         <f>[2]PM!$C119</f>
@@ -41795,9 +41795,9 @@
         <f>[1]Sheet1!$A119</f>
         <v>1719118</v>
       </c>
-      <c r="B120" s="14" t="str">
+      <c r="B120" s="14">
         <f>[1]Sheet1!$E119</f>
-        <v>Gyan Baboo Jain</v>
+        <v>92</v>
       </c>
       <c r="C120" s="17">
         <f>[2]PM!$C120</f>
@@ -42060,9 +42060,9 @@
         <f>[1]Sheet1!$A120</f>
         <v>1719119</v>
       </c>
-      <c r="B121" s="14" t="str">
+      <c r="B121" s="14">
         <f>[1]Sheet1!$E120</f>
-        <v>Rohit Romesh Jain</v>
+        <v>93</v>
       </c>
       <c r="C121" s="17">
         <f>[2]PM!$C121</f>
@@ -42325,9 +42325,9 @@
         <f>[1]Sheet1!$A121</f>
         <v>1719120</v>
       </c>
-      <c r="B122" s="14" t="str">
+      <c r="B122" s="14">
         <f>[1]Sheet1!$E121</f>
-        <v>Anshul Gupta Jain</v>
+        <v>94</v>
       </c>
       <c r="C122" s="17">
         <f>[2]PM!$C122</f>
@@ -42590,9 +42590,9 @@
         <f>[1]Sheet1!$A122</f>
         <v>1719121</v>
       </c>
-      <c r="B123" s="14" t="str">
+      <c r="B123" s="14">
         <f>[1]Sheet1!$E122</f>
-        <v>Yatendra Dalal Jain</v>
+        <v>95</v>
       </c>
       <c r="C123" s="17">
         <f>[2]PM!$C123</f>
@@ -42855,9 +42855,9 @@
         <f>[1]Sheet1!$A123</f>
         <v>1719122</v>
       </c>
-      <c r="B124" s="14" t="str">
+      <c r="B124" s="14">
         <f>[1]Sheet1!$E123</f>
-        <v>Ravi Shankar Jain</v>
+        <v>96</v>
       </c>
       <c r="C124" s="17">
         <f>[2]PM!$C124</f>
@@ -43120,9 +43120,9 @@
         <f>[1]Sheet1!$A124</f>
         <v>1719123</v>
       </c>
-      <c r="B125" s="14" t="str">
+      <c r="B125" s="14">
         <f>[1]Sheet1!$E124</f>
-        <v>Prav Chheda Singh</v>
+        <v>97</v>
       </c>
       <c r="C125" s="17">
         <f>[2]PM!$C125</f>
@@ -43385,9 +43385,9 @@
         <f>[1]Sheet1!$A125</f>
         <v>1719124</v>
       </c>
-      <c r="B126" s="14" t="str">
+      <c r="B126" s="14">
         <f>[1]Sheet1!$E125</f>
-        <v>Anshuman Tripathi Singh</v>
+        <v>98</v>
       </c>
       <c r="C126" s="17">
         <f>[2]PM!$C126</f>
@@ -43650,9 +43650,9 @@
         <f>[1]Sheet1!$A126</f>
         <v>1719125</v>
       </c>
-      <c r="B127" s="14" t="str">
+      <c r="B127" s="14">
         <f>[1]Sheet1!$E126</f>
-        <v>Kripasindhu Sarkar Singh</v>
+        <v>99</v>
       </c>
       <c r="C127" s="17">
         <f>[2]PM!$C127</f>
@@ -43915,9 +43915,9 @@
         <f>[1]Sheet1!$A127</f>
         <v>1719126</v>
       </c>
-      <c r="B128" s="14" t="str">
+      <c r="B128" s="14">
         <f>[1]Sheet1!$E127</f>
-        <v>Gaurab Basu Singh</v>
+        <v>100</v>
       </c>
       <c r="C128" s="17">
         <f>[2]PM!$C128</f>
@@ -44180,9 +44180,9 @@
         <f>[1]Sheet1!$A128</f>
         <v>1719127</v>
       </c>
-      <c r="B129" s="14" t="str">
+      <c r="B129" s="14">
         <f>[1]Sheet1!$E128</f>
-        <v>Naveen Kumar Singh</v>
+        <v>101</v>
       </c>
       <c r="C129" s="17">
         <f>[2]PM!$C129</f>
@@ -44445,9 +44445,9 @@
         <f>[1]Sheet1!$A129</f>
         <v>1719128</v>
       </c>
-      <c r="B130" s="14" t="str">
+      <c r="B130" s="14">
         <f>[1]Sheet1!$E129</f>
-        <v>Ashis Kumar Sharma</v>
+        <v>102</v>
       </c>
       <c r="C130" s="17">
         <f>[2]PM!$C130</f>
@@ -44710,9 +44710,9 @@
         <f>[1]Sheet1!$A130</f>
         <v>1719129</v>
       </c>
-      <c r="B131" s="14" t="str">
+      <c r="B131" s="14">
         <f>[1]Sheet1!$E130</f>
-        <v>Aniket Jha Yadav</v>
+        <v>103</v>
       </c>
       <c r="C131" s="17">
         <f>[2]PM!$C131</f>
@@ -44975,9 +44975,9 @@
         <f>[1]Sheet1!$A131</f>
         <v>1719130</v>
       </c>
-      <c r="B132" s="14" t="str">
+      <c r="B132" s="14">
         <f>[1]Sheet1!$E131</f>
-        <v>Rahul Rakesh Sharma</v>
+        <v>104</v>
       </c>
       <c r="C132" s="17">
         <f>[2]PM!$C132</f>
@@ -45240,9 +45240,9 @@
         <f>[1]Sheet1!$A132</f>
         <v>1719131</v>
       </c>
-      <c r="B133" s="14" t="str">
+      <c r="B133" s="14">
         <f>[1]Sheet1!$E132</f>
-        <v>Raj Mohan Saxena</v>
+        <v>105</v>
       </c>
       <c r="C133" s="17">
         <f>[2]PM!$C133</f>
@@ -45505,9 +45505,9 @@
         <f>[1]Sheet1!$A133</f>
         <v>1719132</v>
       </c>
-      <c r="B134" s="14" t="str">
+      <c r="B134" s="14">
         <f>[1]Sheet1!$E133</f>
-        <v>Komal Sameer Shelatkar</v>
+        <v>106</v>
       </c>
       <c r="C134" s="17">
         <f>[2]PM!$C134</f>
@@ -45766,6 +45766,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5mVHwpG+RF8P2qJ3Sw5Gwv9d3/DGwNcpXnNM/6EE/ruSDyJOe9/c8QuIqUFU+eGJMzVYY92WDrvtOlhhhKohAw==" saltValue="VF4w1+sEEzOgkIN8twv73A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="BG1:BK1"/>
     <mergeCell ref="BL1:BP1"/>
